--- a/BarCode/BarCode/Resources/catalog.xlsx
+++ b/BarCode/BarCode/Resources/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Desktop\CSH\BarCode\BarCode\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D8E462-97CF-4507-B978-B8321A195138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C58DF65-84D8-45C0-BDC2-F2F570ADD4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8235A9FF-D507-4593-ACED-EE17D9344A66}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Скидка</t>
   </si>
   <si>
-    <t>Бургер</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>Гамбургер</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,57 +453,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>234</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
